--- a/artfynd/A 2639-2026 artfynd.xlsx
+++ b/artfynd/A 2639-2026 artfynd.xlsx
@@ -1885,7 +1885,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131223133</v>
+        <v>131222888</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>772983</v>
+        <v>772928</v>
       </c>
       <c r="R13" t="n">
-        <v>7122603</v>
+        <v>7122645</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>hack på gran</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1995,7 +1995,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131222888</v>
+        <v>131223133</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2038,10 +2038,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>772928</v>
+        <v>772983</v>
       </c>
       <c r="R14" t="n">
-        <v>7122645</v>
+        <v>7122603</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>hack på gran</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 2639-2026 artfynd.xlsx
+++ b/artfynd/A 2639-2026 artfynd.xlsx
@@ -785,7 +785,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131223149</v>
+        <v>131223060</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>772974</v>
+        <v>772981</v>
       </c>
       <c r="R3" t="n">
-        <v>7122563</v>
+        <v>7122639</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131223060</v>
+        <v>131223149</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>772981</v>
+        <v>772974</v>
       </c>
       <c r="R4" t="n">
-        <v>7122639</v>
+        <v>7122563</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131222888</v>
+        <v>131223215</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>772928</v>
+        <v>772982</v>
       </c>
       <c r="R13" t="n">
-        <v>7122645</v>
+        <v>7122561</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på två granar</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2105,7 +2105,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131223215</v>
+        <v>131222888</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>772982</v>
+        <v>772928</v>
       </c>
       <c r="R15" t="n">
-        <v>7122561</v>
+        <v>7122645</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>färska ringhack på två granar</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD15" t="b">

--- a/artfynd/A 2639-2026 artfynd.xlsx
+++ b/artfynd/A 2639-2026 artfynd.xlsx
@@ -785,7 +785,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131223060</v>
+        <v>131223149</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>772981</v>
+        <v>772974</v>
       </c>
       <c r="R3" t="n">
-        <v>7122639</v>
+        <v>7122563</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131223149</v>
+        <v>131223060</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>772974</v>
+        <v>772981</v>
       </c>
       <c r="R4" t="n">
-        <v>7122563</v>
+        <v>7122639</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131223215</v>
+        <v>131223133</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>772982</v>
+        <v>772983</v>
       </c>
       <c r="R13" t="n">
-        <v>7122561</v>
+        <v>7122603</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>färska ringhack på två granar</t>
+          <t>hack på gran</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1995,7 +1995,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131223133</v>
+        <v>131222888</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2038,10 +2038,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>772983</v>
+        <v>772928</v>
       </c>
       <c r="R14" t="n">
-        <v>7122603</v>
+        <v>7122645</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>hack på gran</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2105,7 +2105,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131222888</v>
+        <v>131223215</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>772928</v>
+        <v>772982</v>
       </c>
       <c r="R15" t="n">
-        <v>7122645</v>
+        <v>7122561</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på två granar</t>
         </is>
       </c>
       <c r="AD15" t="b">

--- a/artfynd/A 2639-2026 artfynd.xlsx
+++ b/artfynd/A 2639-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131223489</v>
+        <v>131223149</v>
       </c>
       <c r="B2" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,30 +691,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -722,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>773011</v>
+        <v>772974</v>
       </c>
       <c r="R2" t="n">
-        <v>7122664</v>
+        <v>7122563</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,13 +761,17 @@
           <t>2026-02-18</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -785,7 +790,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131223149</v>
+        <v>131223060</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -828,10 +833,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>772974</v>
+        <v>772981</v>
       </c>
       <c r="R3" t="n">
-        <v>7122563</v>
+        <v>7122639</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131223060</v>
+        <v>131223489</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,31 +911,30 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -938,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>772981</v>
+        <v>773011</v>
       </c>
       <c r="R4" t="n">
-        <v>7122639</v>
+        <v>7122664</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -976,17 +980,13 @@
           <t>2026-02-18</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>131223515</v>
       </c>
       <c r="B16" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/artfynd/A 2639-2026 artfynd.xlsx
+++ b/artfynd/A 2639-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131223149</v>
+        <v>131223489</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,31 +691,30 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,10 +722,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>772974</v>
+        <v>773011</v>
       </c>
       <c r="R2" t="n">
-        <v>7122563</v>
+        <v>7122664</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -761,17 +760,13 @@
           <t>2026-02-18</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -790,7 +785,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131223060</v>
+        <v>131223149</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -833,10 +828,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>772981</v>
+        <v>772974</v>
       </c>
       <c r="R3" t="n">
-        <v>7122639</v>
+        <v>7122563</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -900,10 +895,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131223489</v>
+        <v>131223060</v>
       </c>
       <c r="B4" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,30 +906,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -942,10 +938,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>773011</v>
+        <v>772981</v>
       </c>
       <c r="R4" t="n">
-        <v>7122664</v>
+        <v>7122639</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -980,13 +976,17 @@
           <t>2026-02-18</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>131223515</v>
       </c>
       <c r="B16" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
